--- a/evaluation results.xlsx
+++ b/evaluation results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucy\Documents\l4_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03E2BD6-E661-4ABC-8186-0233733F256B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802E3093-FEE8-4270-BDB3-F579B20DA908}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A868C5EB-0D96-457A-AD6F-D6539394901A}"/>
+    <workbookView xWindow="1140" yWindow="945" windowWidth="27015" windowHeight="14220" xr2:uid="{A868C5EB-0D96-457A-AD6F-D6539394901A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,10 +435,10 @@
     <t>After bug fix</t>
   </si>
   <si>
-    <t>before</t>
+    <t>First test</t>
   </si>
   <si>
-    <t>after</t>
+    <t>Second test</t>
   </si>
 </sst>
 </file>
@@ -586,9 +586,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,6 +621,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1998,7 +1998,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>before</c:v>
+                  <c:v>First test</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2091,7 +2091,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>after</c:v>
+                  <c:v>Second test</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4161,13 +4161,6 @@
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$L$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -4203,13 +4196,6 @@
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$L$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -4247,13 +4233,6 @@
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$L$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -4563,13 +4542,6 @@
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$L$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -4605,13 +4577,6 @@
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$L$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -4649,13 +4614,6 @@
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$L$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -4969,13 +4927,6 @@
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$L$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -5013,13 +4964,6 @@
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$L$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -12119,16 +12063,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>71435</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>357185</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12455,8 +12399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D215CF97-82CE-4686-B4DB-3E1E59601979}">
   <dimension ref="B1:AT28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y4" workbookViewId="0">
-      <selection activeCell="AS17" sqref="AS17"/>
+    <sheetView tabSelected="1" topLeftCell="O13" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12470,10 +12414,10 @@
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="48.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
-    <col min="12" max="12" width="21.85546875" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="82" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" customWidth="1"/>
     <col min="17" max="17" width="12.7109375" customWidth="1"/>
     <col min="18" max="18" width="18" customWidth="1"/>
@@ -12487,23 +12431,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
       <c r="K1" t="s">
         <v>9</v>
       </c>
@@ -12513,21 +12457,21 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
       <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
       <c r="W1" t="s">
         <v>19</v>
       </c>
@@ -12537,24 +12481,24 @@
       <c r="Y1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
       <c r="AN1" s="1"/>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
     </row>
     <row r="2" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -12623,23 +12567,23 @@
       <c r="X2">
         <v>7</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AH2" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
       <c r="AN2" s="1"/>
-      <c r="AO2" s="3" t="s">
+      <c r="AO2" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
     </row>
     <row r="3" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -13632,16 +13576,16 @@
       </c>
     </row>
     <row r="16" spans="2:46" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="N16" s="15"/>
+      <c r="N16" s="14"/>
       <c r="AH16">
         <v>20</v>
       </c>
@@ -13653,13 +13597,13 @@
       </c>
     </row>
     <row r="17" spans="2:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="H17" t="s">
@@ -13691,13 +13635,13 @@
       </c>
     </row>
     <row r="18" spans="2:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="H18" t="s">
@@ -13729,13 +13673,13 @@
       </c>
     </row>
     <row r="19" spans="2:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>6.0416666666666667E-2</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H19" t="s">
@@ -13796,16 +13740,16 @@
       <c r="L21">
         <v>7</v>
       </c>
-      <c r="N21" s="14" t="s">
+      <c r="N21" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="O21" s="14" t="s">
+      <c r="O21" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="P21" s="14" t="s">
+      <c r="P21" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="S21" s="14" t="s">
+      <c r="S21" s="13" t="s">
         <v>124</v>
       </c>
     </row>
@@ -13822,13 +13766,13 @@
       <c r="L22">
         <v>1</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="N22" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="3">
         <v>4</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="3">
         <v>5</v>
       </c>
     </row>
@@ -13845,13 +13789,13 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N23" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="3">
         <v>3.5</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="3">
         <v>4</v>
       </c>
       <c r="S23" t="s">
@@ -13868,13 +13812,13 @@
       <c r="J24">
         <v>1</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="N24" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="3">
         <v>4.5</v>
       </c>
       <c r="S24" t="s">
@@ -13885,13 +13829,13 @@
       </c>
     </row>
     <row r="25" spans="2:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N25" s="4" t="s">
+      <c r="N25" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="3">
         <v>5</v>
       </c>
       <c r="S25" t="s">
@@ -13927,16 +13871,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="N1:Q1"/>
     <mergeCell ref="AO1:AT1"/>
     <mergeCell ref="AO2:AT2"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="AH2:AM2"/>
     <mergeCell ref="AG1:AM1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
